--- a/xlsx/伊莱·惠特尼_intext.xlsx
+++ b/xlsx/伊莱·惠特尼_intext.xlsx
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E5%B7%A5%E7%A8%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>機械工程師</t>
+    <t>机械工程师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cotton_gin</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E6%9E%AA</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
